--- a/biology/Botanique/Lepidium_montanum/Lepidium_montanum.xlsx
+++ b/biology/Botanique/Lepidium_montanum/Lepidium_montanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidium montanum est une espèce de plante à fleurs de la famille des Brassicaceae, originaire du centre-ouest au sud-ouest des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée de 40 cm de hauteur environ[1] présente de nombreuses tiges, formant un buisson de forme arrondie. Les feuilles de la base, longues de 4 à 7,5 cm, sont composées pennées ; celles situées plus haut sur les tiges sont plus petites et souvent entières[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juin, avec parfois une deuxième floraison à la fin de l'été et au début de l'automne, si les pluies ont été suffisamment abondantes.
-L'inflorescence, située à l'extrémité de chaque tige, est une grappe dense et courte de minuscules fleurs blanches. Chaque fleur possède quatre pétales de 3 mm de long[1]. Le fruit est une silicule de 3 mm de long[1], plate, ovale, et conservant le style à son extrémité.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée de 40 cm de hauteur environ présente de nombreuses tiges, formant un buisson de forme arrondie. Les feuilles de la base, longues de 4 à 7,5 cm, sont composées pennées ; celles situées plus haut sur les tiges sont plus petites et souvent entières.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin, avec parfois une deuxième floraison à la fin de l'été et au début de l'automne, si les pluies ont été suffisamment abondantes.
+L'inflorescence, située à l'extrémité de chaque tige, est une grappe dense et courte de minuscules fleurs blanches. Chaque fleur possède quatre pétales de 3 mm de long. Le fruit est une silicule de 3 mm de long, plate, ovale, et conservant le style à son extrémité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lepidium_montanum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lepidium_montanum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidium montanum pousse dans les zones désertiques ou les friches arides des États-Unis, souvent au sein des associations végétales Pinus-Juniperus, Larrea tridentata ou Artemisia tridentata.
 L'aire de répartition de cette espèce s'étend, à l'ouest, de l'Oregon à la Californie, et à l'est jusqu'au Texas, au Wyoming et au Colorado.
